--- a/DbLayouts/L5-管理性作業/PfIntranetAdjust.xlsx
+++ b/DbLayouts/L5-管理性作業/PfIntranetAdjust.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>建檔日期時間</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -151,15 +147,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>LastUpdate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>最後更新日期時間</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdateEmpNo</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -265,30 +253,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>SumAmtSign</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>累計達成金額加減號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>SumAmt</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>SumCntSign</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>累計達成金額</t>
-  </si>
-  <si>
-    <t>累計達成件數</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>累計達成件數加減號</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -338,6 +303,26 @@
   <si>
     <t>CustNo,FacmNo,BormNo</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdateEmpNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>累計達成加減金額</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>累計達成加減件數</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -973,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -998,10 +983,10 @@
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="26"/>
@@ -1026,7 +1011,7 @@
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>18</v>
@@ -1107,13 +1092,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="31"/>
@@ -1128,7 +1113,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>24</v>
@@ -1139,7 +1124,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
-        <f t="shared" ref="A11:A26" si="0">A10+1</f>
+        <f t="shared" ref="A11:A29" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -1182,7 +1167,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>26</v>
@@ -1198,10 +1183,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>24</v>
@@ -1219,7 +1204,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>24</v>
@@ -1234,13 +1219,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="22">
         <v>6</v>
@@ -1252,13 +1237,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E17" s="22">
         <v>6</v>
@@ -1270,13 +1255,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E18" s="22">
         <v>16</v>
@@ -1291,13 +1276,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E19" s="22">
         <v>5</v>
@@ -1312,19 +1297,19 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E20" s="22">
         <v>1</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1333,13 +1318,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="22">
         <v>6</v>
@@ -1351,13 +1336,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="22">
         <v>6</v>
@@ -1369,46 +1354,50 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E24" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F24" s="29">
+        <v>2</v>
+      </c>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="29">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>24</v>
@@ -1427,106 +1416,65 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="22">
-        <v>1</v>
-      </c>
-      <c r="G26" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
-        <f t="shared" ref="A27:A31" si="1">A26+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>68</v>
+        <v>30</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E27" s="22">
-        <v>16</v>
-      </c>
-      <c r="F27" s="29">
-        <v>2</v>
-      </c>
-      <c r="G27" s="15"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C28" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C29" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="20" t="s">
-        <v>33</v>
-      </c>
       <c r="E29" s="22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="29">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="22"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="29">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="22">
         <v>6</v>
       </c>
     </row>
@@ -1550,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
@@ -1576,24 +1524,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">

--- a/DbLayouts/L5-管理性作業/PfIntranetAdjust.xlsx
+++ b/DbLayouts/L5-管理性作業/PfIntranetAdjust.xlsx
@@ -237,92 +237,92 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>UnitType</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位類別</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:全部 2:單位 3:區部 4:部室 5:區部＋部室</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SumAmt</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SumCnt</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByBormFirst</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerfAmt</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerfCnt</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>業績件數</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>業績金額</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND FacmNo = ,AND BormNo =</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByWorkMonth</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkMonth</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkMonth =</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo,FacmNo,BormNo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdateEmpNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>累計達成加減金額</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>累計達成加減件數</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>PfIntranetAdjust</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitType</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位類別</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:全部 2:單位 3:區部 4:部室 5:區部＋部室</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>SumAmt</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>SumCnt</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByBormFirst</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>PerfAmt</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>PerfCnt</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>業績件數</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>業績金額</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo = ,AND FacmNo = ,AND BormNo =</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByWorkMonth</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkMonth</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkMonth =</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo,FacmNo,BormNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>累計達成加減金額</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>累計達成加減件數</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="3" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>55</v>
@@ -1183,7 +1183,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>40</v>
@@ -1255,13 +1255,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>67</v>
       </c>
       <c r="E18" s="22">
         <v>16</v>
@@ -1276,13 +1276,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>65</v>
-      </c>
       <c r="D19" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="22">
         <v>5</v>
@@ -1297,10 +1297,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>58</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>46</v>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1372,10 +1372,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>24</v>
@@ -1394,10 +1394,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>24</v>
@@ -1416,7 +1416,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>28</v>
@@ -1450,7 +1450,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>33</v>
@@ -1466,7 +1466,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>34</v>
@@ -1524,24 +1524,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">

--- a/DbLayouts/L5-管理性作業/PfIntranetAdjust.xlsx
+++ b/DbLayouts/L5-管理性作業/PfIntranetAdjust.xlsx
@@ -15,7 +15,7 @@
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -961,7 +961,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
